--- a/cumpleaniosNyN.xlsx
+++ b/cumpleaniosNyN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Carlos</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>TATIANA DEL CARMEN</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,6 +473,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
     </row>

--- a/cumpleaniosNyN.xlsx
+++ b/cumpleaniosNyN.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +401,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -412,7 +412,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -423,7 +423,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -434,7 +434,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -456,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -478,7 +478,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
